--- a/going-further/picture-naming.xlsx
+++ b/going-further/picture-naming.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Demographic" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1811" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1887" uniqueCount="143">
   <si>
     <t xml:space="preserve">Code</t>
   </si>
@@ -206,6 +206,9 @@
     <t xml:space="preserve">Gestures</t>
   </si>
   <si>
+    <t xml:space="preserve">english</t>
+  </si>
+  <si>
     <t xml:space="preserve">NR</t>
   </si>
   <si>
@@ -219,6 +222,9 @@
   </si>
   <si>
     <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">italian</t>
   </si>
   <si>
     <t xml:space="preserve">NT-S</t>
@@ -587,7 +593,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -690,8 +696,8 @@
   </sheetPr>
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E20" activeCellId="1" sqref="B2:B20 E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1344,7 +1350,7 @@
   <dimension ref="A1:AC36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1452,68 +1458,68 @@
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>2</v>
+      <c r="B2" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E2" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="L2" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="J2" s="0" t="s">
+      <c r="M2" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="P2" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="M2" s="0" t="s">
+      <c r="Q2" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="N2" s="0" t="s">
+      <c r="R2" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="S2" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="O2" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="R2" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="S2" s="0" t="s">
-        <v>61</v>
-      </c>
       <c r="T2" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U2" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="V2" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="W2" s="0" t="n">
         <v>3</v>
@@ -1537,72 +1543,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="6" t="n">
-        <v>1</v>
+      <c r="B3" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L3" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="J3" s="6" t="s">
+      <c r="M3" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N3" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="K3" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>61</v>
-      </c>
       <c r="O3" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T3" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U3" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V3" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="W3" s="6" t="n">
         <v>12</v>
@@ -1626,72 +1632,72 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>2</v>
+      <c r="B4" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F4" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="G4" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>61</v>
-      </c>
       <c r="M4" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S4" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T4" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="U4" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V4" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="W4" s="0" t="n">
         <v>13</v>
@@ -1715,72 +1721,72 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="6" t="n">
-        <v>1</v>
+      <c r="B5" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="U5" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="S5" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="T5" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="U5" s="6" t="s">
-        <v>63</v>
-      </c>
       <c r="V5" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>10</v>
@@ -1804,72 +1810,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>2</v>
+      <c r="B6" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="C6" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>63</v>
-      </c>
       <c r="H6" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S6" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T6" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U6" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V6" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="W6" s="0" t="n">
         <v>14</v>
@@ -1893,72 +1899,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="6" t="n">
-        <v>1</v>
+      <c r="B7" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F7" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N7" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H7" s="6" t="s">
+      <c r="O7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="U7" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="V7" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q7" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="R7" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="S7" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="T7" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="U7" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="V7" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="W7" s="7" t="n">
         <v>11</v>
@@ -1982,72 +1988,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>2</v>
+      <c r="B8" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J8" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="L8" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="K8" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="L8" s="0" t="s">
-        <v>61</v>
-      </c>
       <c r="M8" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S8" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T8" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="U8" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="V8" s="0" t="s">
         <v>62</v>
-      </c>
-      <c r="U8" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="V8" s="0" t="s">
-        <v>61</v>
       </c>
       <c r="W8" s="0" t="n">
         <v>10</v>
@@ -2071,72 +2077,72 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="6" t="n">
-        <v>1</v>
+      <c r="B9" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>63</v>
-      </c>
       <c r="E9" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="P9" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="Q9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="S9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="T9" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="U9" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="V9" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="P9" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q9" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="R9" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="S9" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="T9" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="U9" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="V9" s="6" t="s">
-        <v>63</v>
       </c>
       <c r="W9" s="6" t="n">
         <v>10</v>
@@ -2160,72 +2166,72 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="0" t="n">
-        <v>2</v>
+      <c r="B10" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="C10" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="H10" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="O10" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="P10" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q10" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="R10" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="S10" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="T10" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="U10" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="V10" s="0" t="s">
         <v>64</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="J10" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="K10" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="L10" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="M10" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="N10" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="O10" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="P10" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q10" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="R10" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="S10" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="T10" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="U10" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="V10" s="0" t="s">
-        <v>63</v>
       </c>
       <c r="W10" s="0" t="n">
         <v>11</v>
@@ -2249,72 +2255,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="0" t="n">
-        <v>1</v>
+      <c r="B11" s="0" t="s">
+        <v>66</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q11" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R11" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S11" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T11" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="U11" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="V11" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W11" s="0" t="n">
         <v>2</v>
@@ -2338,72 +2344,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="0" t="n">
-        <v>2</v>
+      <c r="B12" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P12" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q12" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R12" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S12" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T12" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="U12" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="V12" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="W12" s="0" t="n">
         <v>12</v>
@@ -2427,72 +2433,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="6" t="n">
-        <v>1</v>
+      <c r="B13" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="6" t="s">
+      <c r="H13" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="O13" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="P13" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="O13" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="P13" s="6" t="s">
-        <v>63</v>
-      </c>
       <c r="Q13" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R13" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S13" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T13" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="U13" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V13" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="W13" s="6" t="n">
         <v>11</v>
@@ -2516,72 +2522,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="0" t="n">
-        <v>2</v>
+      <c r="B14" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="C14" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>63</v>
-      </c>
       <c r="H14" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="L14" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="I14" s="0" t="s">
+      <c r="M14" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="O14" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="J14" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="K14" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="L14" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="M14" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="N14" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="O14" s="0" t="s">
-        <v>63</v>
-      </c>
       <c r="P14" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q14" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R14" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S14" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T14" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="U14" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="V14" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W14" s="0" t="n">
         <v>8</v>
@@ -2605,72 +2611,72 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="6" t="n">
-        <v>1</v>
+      <c r="B15" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="C15" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="L15" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="M15" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="O15" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="P15" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="R15" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="S15" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="T15" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="U15" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="N15" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="O15" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="P15" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q15" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="R15" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="S15" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="T15" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="U15" s="6" t="s">
-        <v>63</v>
-      </c>
       <c r="V15" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="W15" s="6" t="n">
         <v>8</v>
@@ -2694,72 +2700,72 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="0" t="n">
-        <v>2</v>
+      <c r="B16" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D16" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>63</v>
-      </c>
       <c r="H16" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P16" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q16" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R16" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S16" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T16" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="U16" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V16" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="W16" s="0" t="n">
         <v>15</v>
@@ -2783,72 +2789,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="6" t="n">
-        <v>1</v>
+      <c r="B17" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="C17" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q17" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="R17" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="S17" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="T17" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="U17" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="V17" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="N17" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="O17" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="P17" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q17" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="R17" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="S17" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="T17" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="U17" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="V17" s="6" t="s">
-        <v>63</v>
       </c>
       <c r="W17" s="6" t="n">
         <v>12</v>
@@ -2872,72 +2878,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="0" t="n">
-        <v>2</v>
+      <c r="B18" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E18" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="L18" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="F18" s="0" t="s">
+      <c r="M18" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="N18" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="G18" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="H18" s="0" t="s">
+      <c r="O18" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="P18" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q18" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="R18" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="S18" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="I18" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="J18" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="K18" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="L18" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="M18" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="N18" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="O18" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="P18" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q18" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="R18" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="S18" s="0" t="s">
-        <v>61</v>
-      </c>
       <c r="T18" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="U18" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V18" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="W18" s="0" t="n">
         <v>13</v>
@@ -2961,36 +2967,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="0" t="n">
-        <v>1</v>
+      <c r="B19" s="0" t="s">
+        <v>66</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K19" s="0" t="s">
         <v>18</v>
@@ -3050,72 +3056,72 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="6" t="n">
-        <v>1</v>
+      <c r="B20" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="C20" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L20" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="M20" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N20" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="O20" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="P20" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q20" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="R20" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="S20" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="T20" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="U20" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="V20" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="L20" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="M20" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="N20" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="O20" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="P20" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q20" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="R20" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="S20" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="T20" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="U20" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="V20" s="6" t="s">
-        <v>63</v>
       </c>
       <c r="W20" s="6" t="n">
         <v>9</v>
@@ -3531,7 +3537,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>5</v>
@@ -3596,7 +3602,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>1</v>
@@ -3661,7 +3667,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>6</v>
@@ -3726,7 +3732,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>2</v>
@@ -3856,7 +3862,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>0</v>
@@ -3921,7 +3927,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>0</v>
@@ -3986,7 +3992,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="V34" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="W34" s="0" t="n">
         <f aca="false">AVERAGE(W2,W3,W4,W5,W6,W7,W8,W9,W10,W11,W12,W13,W14,W15,W16,W17,W18,W19,W20)</f>
@@ -4019,7 +4025,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="V35" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W35" s="0" t="n">
         <f aca="false">AVERAGE(W3,W5,W7,W9,W13,W15,W17,W20)</f>
@@ -4052,7 +4058,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="V36" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="W36" s="0" t="n">
         <f aca="false">AVERAGE(W4,W6,W8,W10,W12,W14,W16,W18)</f>
@@ -4102,7 +4108,7 @@
   <dimension ref="A1:AJ30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V30" activeCellId="0" sqref="V30"/>
+      <selection pane="topLeft" activeCell="D23" activeCellId="1" sqref="B2:B20 D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4131,144 +4137,144 @@
         <v>32</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="W1" s="0" t="s">
         <v>53</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Z1" s="0" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="9" t="n">
-        <v>2</v>
+      <c r="B2" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="W2" s="0" t="n">
         <v>12</v>
@@ -4285,72 +4291,72 @@
       <c r="AI2" s="2"/>
       <c r="AJ2" s="2"/>
     </row>
-    <row r="3" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="10" t="n">
-        <v>1</v>
+      <c r="B3" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q3" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R3" s="10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="S3" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T3" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="U3" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V3" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="W3" s="6" t="n">
         <v>18</v>
@@ -4368,72 +4374,72 @@
       <c r="AG3" s="5"/>
       <c r="AH3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="9" t="n">
-        <v>2</v>
+      <c r="B4" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S4" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T4" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="U4" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V4" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="W4" s="0" t="n">
         <v>18</v>
@@ -4450,72 +4456,72 @@
       <c r="AF4" s="5"/>
       <c r="AG4" s="5"/>
     </row>
-    <row r="5" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="10" t="n">
-        <v>1</v>
+      <c r="B5" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P5" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R5" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S5" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T5" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="U5" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V5" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>17</v>
@@ -4532,72 +4538,72 @@
       <c r="AF5" s="5"/>
       <c r="AG5" s="5"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="9" t="n">
-        <v>2</v>
+      <c r="B6" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O6" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S6" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T6" s="9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="U6" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V6" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="W6" s="7" t="n">
         <v>17</v>
@@ -4614,72 +4620,72 @@
       <c r="AF6" s="5"/>
       <c r="AG6" s="5"/>
     </row>
-    <row r="7" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="10" t="n">
-        <v>1</v>
+      <c r="B7" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P7" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q7" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R7" s="10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="S7" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T7" s="10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="U7" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V7" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="W7" s="7" t="n">
         <v>18</v>
@@ -4697,72 +4703,72 @@
       <c r="AF7" s="5"/>
       <c r="AG7" s="5"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="9" t="n">
-        <v>2</v>
+      <c r="B8" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="S8" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T8" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="U8" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V8" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="W8" s="7" t="n">
         <v>16</v>
@@ -4779,72 +4785,72 @@
       <c r="AF8" s="5"/>
       <c r="AG8" s="5"/>
     </row>
-    <row r="9" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="10" t="n">
-        <v>1</v>
+      <c r="B9" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P9" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q9" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R9" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S9" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T9" s="10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="U9" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V9" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="W9" s="6" t="n">
         <v>18</v>
@@ -4861,72 +4867,72 @@
       <c r="AE9" s="7"/>
       <c r="AF9" s="5"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="9" t="n">
-        <v>2</v>
+      <c r="B10" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q10" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R10" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S10" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T10" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="U10" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V10" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="W10" s="0" t="n">
         <v>20</v>
@@ -4942,72 +4948,72 @@
       </c>
       <c r="AG10" s="5"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="10" t="n">
-        <v>1</v>
+      <c r="B11" s="0" t="s">
+        <v>66</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O11" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P11" s="10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q11" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R11" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S11" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T11" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="U11" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="V11" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W11" s="7" t="n">
         <v>7</v>
@@ -5025,72 +5031,72 @@
       <c r="AI11" s="2"/>
       <c r="AJ11" s="2"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="9" t="n">
-        <v>2</v>
+      <c r="B12" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q12" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R12" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S12" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T12" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="U12" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V12" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="W12" s="0" t="n">
         <v>19</v>
@@ -5112,72 +5118,72 @@
       <c r="AG12" s="5"/>
       <c r="AH12" s="2"/>
     </row>
-    <row r="13" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="10" t="n">
-        <v>1</v>
+      <c r="B13" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P13" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q13" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R13" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S13" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T13" s="10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="U13" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V13" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="W13" s="7" t="n">
         <v>19</v>
@@ -5194,72 +5200,72 @@
       <c r="AF13" s="5"/>
       <c r="AG13" s="5"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="9" t="n">
-        <v>2</v>
+      <c r="B14" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q14" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R14" s="9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="S14" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T14" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="U14" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V14" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="W14" s="0" t="n">
         <v>19</v>
@@ -5275,72 +5281,72 @@
       </c>
       <c r="AF14" s="5"/>
     </row>
-    <row r="15" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="10" t="n">
-        <v>1</v>
+      <c r="B15" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N15" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O15" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P15" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q15" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R15" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S15" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T15" s="10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="U15" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V15" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="W15" s="6" t="n">
         <v>18</v>
@@ -5358,72 +5364,72 @@
       <c r="AF15" s="5"/>
       <c r="AG15" s="5"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="9" t="n">
-        <v>2</v>
+      <c r="B16" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N16" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P16" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R16" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S16" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T16" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="U16" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V16" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="W16" s="0" t="n">
         <v>20</v>
@@ -5444,72 +5450,72 @@
       <c r="AF16" s="5"/>
       <c r="AG16" s="5"/>
     </row>
-    <row r="17" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="10" t="n">
-        <v>1</v>
+      <c r="B17" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N17" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O17" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P17" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q17" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R17" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S17" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T17" s="10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="U17" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V17" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="W17" s="6" t="n">
         <v>17</v>
@@ -5527,72 +5533,72 @@
       <c r="AF17" s="5"/>
       <c r="AG17" s="5"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="9" t="n">
-        <v>2</v>
+      <c r="B18" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N18" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O18" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P18" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R18" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S18" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T18" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="U18" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V18" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="W18" s="0" t="n">
         <v>19</v>
@@ -5613,36 +5619,36 @@
       <c r="AF18" s="5"/>
       <c r="AG18" s="5"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="0" t="n">
-        <v>1</v>
+      <c r="B19" s="0" t="s">
+        <v>66</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K19" s="0" t="s">
         <v>18</v>
@@ -5692,72 +5698,72 @@
       <c r="AI19" s="2"/>
       <c r="AJ19" s="2"/>
     </row>
-    <row r="20" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="10" t="n">
-        <v>1</v>
+      <c r="B20" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N20" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O20" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P20" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q20" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R20" s="10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="S20" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T20" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="U20" s="10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="V20" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="W20" s="6" t="n">
         <v>16</v>
@@ -5844,7 +5850,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>2</v>
@@ -5909,7 +5915,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>1</v>
@@ -6039,7 +6045,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>5</v>
@@ -6104,7 +6110,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>8</v>
@@ -6169,7 +6175,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="V28" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="W28" s="0" t="n">
         <f aca="false">AVERAGE(W2,W3,W4,W5,W6,W7,W8,W9,W10,W11,W12,W13,W14,W15,W15,W16,W17,W18,W19,W20)</f>
@@ -6190,7 +6196,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="V29" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W29" s="0" t="n">
         <f aca="false">AVERAGE(W3,W5,W7,W9,W13,W15,W17,W20)</f>
@@ -6211,7 +6217,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="V30" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="W30" s="0" t="n">
         <f aca="false">AVERAGE(W4,W6,W8,W10,W12,W14,W16,W18)</f>
@@ -6249,7 +6255,7 @@
   <dimension ref="A1:AC37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y3" activeCellId="0" sqref="Y3"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6267,64 +6273,64 @@
         <v>32</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="W1" s="0" t="s">
         <v>53</v>
@@ -6348,18 +6354,18 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="n">
-        <v>2</v>
+      <c r="B2" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>18</v>
@@ -6437,72 +6443,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="6" t="n">
-        <v>1</v>
+      <c r="B3" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>61</v>
-      </c>
       <c r="L3" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T3" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U3" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V3" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="W3" s="6" t="n">
         <v>9</v>
@@ -6526,72 +6532,72 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>2</v>
+      <c r="B4" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="S4" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T4" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="U4" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V4" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="W4" s="0" t="n">
         <v>9</v>
@@ -6615,72 +6621,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="6" t="n">
-        <v>1</v>
+      <c r="B5" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K5" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="I5" s="6" t="s">
+      <c r="L5" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N5" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="J5" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="L5" s="6" t="s">
+      <c r="O5" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q5" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="R5" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="S5" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="N5" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="S5" s="6" t="s">
-        <v>63</v>
-      </c>
       <c r="T5" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="U5" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V5" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>8</v>
@@ -6704,72 +6710,72 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>2</v>
+      <c r="B6" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="S6" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T6" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U6" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V6" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W6" s="0" t="n">
         <v>10</v>
@@ -6793,72 +6799,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="6" t="n">
-        <v>1</v>
+      <c r="B7" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>61</v>
-      </c>
       <c r="E7" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="S7" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T7" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="U7" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="V7" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="W7" s="6" t="n">
         <v>7</v>
@@ -6882,72 +6888,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>2</v>
+      <c r="B8" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>61</v>
-      </c>
       <c r="G8" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q8" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="R8" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="S8" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="K8" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="L8" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="M8" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="N8" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="O8" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="P8" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q8" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="R8" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="S8" s="0" t="s">
-        <v>61</v>
-      </c>
       <c r="T8" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="U8" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V8" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="W8" s="0" t="n">
         <v>9</v>
@@ -6971,72 +6977,72 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="6" t="n">
-        <v>1</v>
+      <c r="B9" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D9" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K9" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="6" t="s">
+      <c r="L9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N9" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="O9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>61</v>
-      </c>
       <c r="R9" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S9" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T9" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="U9" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V9" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="W9" s="7" t="n">
         <v>11</v>
@@ -7060,72 +7066,72 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="0" t="n">
-        <v>2</v>
+      <c r="B10" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G10" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="J10" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="N10" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="I10" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="J10" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="K10" s="0" t="s">
+      <c r="O10" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q10" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="L10" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="M10" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="N10" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="O10" s="0" t="s">
+      <c r="R10" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="S10" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="T10" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="U10" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="P10" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q10" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="R10" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="S10" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="T10" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="U10" s="0" t="s">
-        <v>61</v>
-      </c>
       <c r="V10" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="W10" s="0" t="n">
         <v>9</v>
@@ -7149,12 +7155,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="0" t="n">
-        <v>1</v>
+      <c r="B11" s="0" t="s">
+        <v>66</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>18</v>
@@ -7238,72 +7244,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="0" t="n">
-        <v>2</v>
+      <c r="B12" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E12" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="N12" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="O12" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="P12" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q12" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="R12" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="S12" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="T12" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="U12" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="I12" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="J12" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="K12" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="L12" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="M12" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="N12" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="O12" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="P12" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q12" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="R12" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="S12" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="T12" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="U12" s="0" t="s">
-        <v>61</v>
-      </c>
       <c r="V12" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="W12" s="0" t="n">
         <v>7</v>
@@ -7327,72 +7333,72 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="6" t="n">
-        <v>1</v>
+      <c r="B13" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F13" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K13" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="H13" s="6" t="s">
+      <c r="L13" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q13" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="I13" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="J13" s="6" t="s">
+      <c r="R13" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="S13" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="T13" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="U13" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="K13" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="O13" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="P13" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q13" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="R13" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="S13" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="T13" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="U13" s="6" t="s">
-        <v>61</v>
-      </c>
       <c r="V13" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="W13" s="6" t="n">
         <v>6</v>
@@ -7416,72 +7422,72 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="0" t="n">
-        <v>2</v>
+      <c r="B14" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G14" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="N14" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="H14" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="I14" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="J14" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="K14" s="0" t="s">
+      <c r="O14" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="P14" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="L14" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="M14" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="N14" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="O14" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="P14" s="0" t="s">
-        <v>61</v>
-      </c>
       <c r="Q14" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R14" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S14" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T14" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="U14" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V14" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="W14" s="0" t="n">
         <v>7</v>
@@ -7505,72 +7511,72 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="6" t="n">
-        <v>1</v>
+      <c r="B15" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D15" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I15" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" s="6" t="s">
+      <c r="J15" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="L15" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>61</v>
-      </c>
       <c r="M15" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N15" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P15" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q15" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R15" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="S15" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T15" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U15" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V15" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="W15" s="6" t="n">
         <v>5</v>
@@ -7594,72 +7600,72 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="0" t="n">
-        <v>2</v>
+      <c r="B16" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P16" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q16" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R16" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="S16" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T16" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="U16" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V16" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="W16" s="0" t="n">
         <v>10</v>
@@ -7683,72 +7689,72 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="6" t="n">
-        <v>1</v>
+      <c r="B17" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D17" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>61</v>
-      </c>
       <c r="F17" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P17" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q17" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R17" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S17" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T17" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="U17" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V17" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="W17" s="6" t="n">
         <v>5</v>
@@ -7772,72 +7778,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="0" t="n">
-        <v>2</v>
+      <c r="B18" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P18" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q18" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R18" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S18" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T18" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="U18" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V18" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="W18" s="0" t="n">
         <v>8</v>
@@ -7861,12 +7867,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="0" t="n">
-        <v>1</v>
+      <c r="B19" s="0" t="s">
+        <v>66</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>18</v>
@@ -7950,72 +7956,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="6" t="n">
-        <v>1</v>
+      <c r="B20" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D20" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="P20" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q20" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L20" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="M20" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="N20" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="O20" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="P20" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q20" s="6" t="s">
-        <v>61</v>
-      </c>
       <c r="R20" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="S20" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T20" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U20" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V20" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="W20" s="6" t="n">
         <v>10</v>
@@ -8431,7 +8437,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>3</v>
@@ -8496,7 +8502,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>4</v>
@@ -8561,7 +8567,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>2</v>
@@ -8626,7 +8632,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>5</v>
@@ -8756,7 +8762,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>4</v>
@@ -8821,7 +8827,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>1</v>
@@ -8896,7 +8902,7 @@
       <c r="T35" s="7"/>
       <c r="U35" s="7"/>
       <c r="V35" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="W35" s="0" t="n">
         <f aca="false">AVERAGE(W2,W3,W4,W5,W6,W7,W8,W9,W10,W11,W12,W13,W14,W15,W16,W17,W18,W19,W20)</f>
@@ -8929,7 +8935,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="V36" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W36" s="0" t="n">
         <f aca="false">AVERAGE(W3,W5,W7,W9,W13,W15,W17,W20)</f>
@@ -8962,7 +8968,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="V37" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="W37" s="0" t="n">
         <f aca="false">AVERAGE(W4,W6,W8,W10,W12,W14,W16,W18)</f>
@@ -9011,8 +9017,8 @@
   </sheetPr>
   <dimension ref="A1:Z31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9029,144 +9035,144 @@
         <v>32</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="W1" s="0" t="s">
         <v>53</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Z1" s="0" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="n">
-        <v>2</v>
+      <c r="B2" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="S2" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="T2" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="U2" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="V2" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="W2" s="0" t="n">
         <v>1</v>
@@ -9181,72 +9187,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="6" t="n">
-        <v>1</v>
+      <c r="B3" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T3" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="U3" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V3" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="W3" s="6" t="n">
         <v>17</v>
@@ -9261,72 +9267,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>2</v>
+      <c r="B4" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S4" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T4" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="U4" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="V4" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="W4" s="0" t="n">
         <v>17</v>
@@ -9341,72 +9347,72 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="6" t="n">
-        <v>1</v>
+      <c r="B5" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="R5" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S5" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T5" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="U5" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="V5" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>15</v>
@@ -9421,72 +9427,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>2</v>
+      <c r="B6" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="S6" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T6" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="U6" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V6" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="W6" s="7" t="n">
         <v>15</v>
@@ -9501,72 +9507,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="6" t="n">
-        <v>1</v>
+      <c r="B7" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="S7" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T7" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="U7" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="V7" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="W7" s="6" t="n">
         <v>15</v>
@@ -9581,72 +9587,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>2</v>
+      <c r="B8" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="S8" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="T8" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="U8" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="V8" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="W8" s="0" t="n">
         <v>13</v>
@@ -9661,72 +9667,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="6" t="n">
-        <v>1</v>
+      <c r="B9" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S9" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T9" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="U9" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V9" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="W9" s="6" t="n">
         <v>19</v>
@@ -9741,72 +9747,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="0" t="n">
-        <v>2</v>
+      <c r="B10" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P10" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q10" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S10" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T10" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="U10" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="V10" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="W10" s="0" t="n">
         <v>16</v>
@@ -9821,12 +9827,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="0" t="n">
-        <v>1</v>
+      <c r="B11" s="0" t="s">
+        <v>66</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>18</v>
@@ -9901,72 +9907,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="0" t="n">
-        <v>2</v>
+      <c r="B12" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P12" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q12" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R12" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="S12" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="T12" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="U12" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="V12" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="W12" s="7" t="n">
         <v>14</v>
@@ -9981,72 +9987,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="6" t="n">
-        <v>1</v>
+      <c r="B13" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R13" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S13" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T13" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="U13" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="V13" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="W13" s="6" t="n">
         <v>16</v>
@@ -10061,72 +10067,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="0" t="n">
-        <v>2</v>
+      <c r="B14" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P14" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q14" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R14" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S14" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T14" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="U14" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="V14" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="W14" s="0" t="n">
         <v>16</v>
@@ -10141,72 +10147,72 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="6" t="n">
-        <v>1</v>
+      <c r="B15" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N15" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P15" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q15" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R15" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="S15" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T15" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="U15" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V15" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="W15" s="6" t="n">
         <v>17</v>
@@ -10221,72 +10227,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="0" t="n">
-        <v>2</v>
+      <c r="B16" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P16" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q16" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R16" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S16" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T16" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="U16" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="V16" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="W16" s="0" t="n">
         <v>17</v>
@@ -10301,72 +10307,72 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="6" t="n">
-        <v>1</v>
+      <c r="B17" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="P17" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q17" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R17" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="S17" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T17" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="U17" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="V17" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="W17" s="6" t="n">
         <v>13</v>
@@ -10381,72 +10387,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="0" t="n">
-        <v>2</v>
+      <c r="B18" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P18" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q18" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R18" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="S18" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="T18" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="U18" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="V18" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="W18" s="0" t="n">
         <v>13</v>
@@ -10461,12 +10467,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="0" t="n">
-        <v>1</v>
+      <c r="B19" s="0" t="s">
+        <v>66</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>18</v>
@@ -10541,72 +10547,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="6" t="n">
-        <v>1</v>
+      <c r="B20" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P20" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q20" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R20" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S20" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="T20" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="U20" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V20" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="W20" s="6" t="n">
         <v>18</v>
@@ -10688,7 +10694,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>0</v>
@@ -10753,7 +10759,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>1</v>
@@ -10883,7 +10889,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>8</v>
@@ -10948,7 +10954,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>7</v>
@@ -11013,7 +11019,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="V29" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="W29" s="0" t="n">
         <f aca="false">AVERAGE(W2,W3,W4,W5,W6,W7,W8,W9,W10,W11,W12,W13,W14,W15,W16,W17,W18,W19,W20)</f>
@@ -11034,7 +11040,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="V30" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W30" s="0" t="n">
         <f aca="false">AVERAGE(W3,W5,W7,W9,W13,W15,W17,W20)</f>
@@ -11055,7 +11061,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="V31" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="W31" s="0" t="n">
         <f aca="false">AVERAGE(W4,W6,W8,W10,W12,W14,W16,W18)</f>
